--- a/wireframe.xlsx
+++ b/wireframe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Documents/openclassroom/projet2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Administrateur/ocr/projet2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4562D506-0C75-B246-B377-5ADBA2713257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5A9BD4-BD99-0B43-9A6C-F24DD08CC633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="13140" windowHeight="19040" xr2:uid="{ED01863F-356B-A545-A560-4477182A75B8}"/>
+    <workbookView xWindow="14220" yWindow="1820" windowWidth="13140" windowHeight="17540" xr2:uid="{ED01863F-356B-A545-A560-4477182A75B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>section</t>
   </si>
@@ -39,9 +33,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>section nom et titre</t>
-  </si>
-  <si>
     <t>section formation</t>
   </si>
   <si>
@@ -51,9 +42,6 @@
     <t>section recommandation</t>
   </si>
   <si>
-    <t>section contact</t>
-  </si>
-  <si>
     <t>header</t>
   </si>
   <si>
@@ -63,15 +51,9 @@
     <t xml:space="preserve">Section </t>
   </si>
   <si>
-    <t>section a propos de moi</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
-    <t>&lt;p&gt;</t>
-  </si>
-  <si>
     <t>section loisirs</t>
   </si>
   <si>
@@ -81,23 +63,38 @@
     <t>(font awesome)</t>
   </si>
   <si>
-    <t>section Junior Web</t>
-  </si>
-  <si>
-    <t>Secton Graphic designer</t>
+    <t>&lt;article&gt; a propos de moi</t>
+  </si>
+  <si>
+    <t>&lt;adresse&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font awesome&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fas fa-camera"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>header nom et titre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF922B"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -211,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +526,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,7 +556,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -588,12 +586,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -603,12 +601,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -618,13 +616,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -680,7 +676,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -692,7 +688,9 @@
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -723,7 +721,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -738,11 +736,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -751,19 +751,20 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
@@ -965,7 +966,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -975,7 +976,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -988,7 +989,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -1001,10 +1002,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="7"/>
